--- a/docs/교육생 요구사항정의서.xlsx
+++ b/docs/교육생 요구사항정의서.xlsx
@@ -272,14 +272,6 @@
 7. 캘린더는 휴일과 공휴일에 대한 표시가 있다.</t>
   </si>
   <si>
-    <t>교육진도(수강률) / 출결 조회(대시보드) * (QR코드 API)
-1. 교육진도는 커리큘럼에 맞춰서 현재 일정과 비교할 수 있도록 캘린더에 표시한다. 지난날은 전체 배경을 회색으로 표시하고 출석이 확인되지 않은 날은 빨간색 테두리, 출석한날은 초록색 테두리로 구분한다.
-2. 수강률은 진행된 교육진도에 맞추어 출결현황을 비교하여 별도의 계산식을 통해 계산하여 퍼센트로 표시하고 주차별 과목 및 교강사 리스트 표시하는 영역에 수강일 / 출석일 / 수강률로 구분지어 숫자로 표시된다.  
-3. 출결 현황표시 아래쪽으로 총 출석, 결석, 지각, 조퇴, 외출로 구분하여 별도의 아이콘을 만들어서 숫자와 함께 확인할 수 있도록 표시한다.  
-4. 출석체크는 교강사가 준비한 출결 QR코드가 화면에 표시되면 API를 통해 스캔하여 출석이 인증된다.
-5. 출석 인증완료시에는 즉각적으로 출석표시가 된것을 캘린더에서 인지할 수 있다.</t>
-  </si>
-  <si>
     <t>시험 응시
 1. 해당 교육내용의 시험 리스트가 게시판 형태로 출력된다. 중간, 기말, 쪽지 등 시험에 대한 분류가 설정되어있다.
 2. 게시판에 출력된 시험응시 리스트는 기간이 종료되었거나 활성화 되어있는 시험만 선택이 가능하다.
@@ -520,6 +512,15 @@
 4. 퇴실을 찍지 않으면 결석으로 처리한다.
 5. 퇴실을 찍은 시간이 12시 이전인경우 결석, 이후면 조퇴로 간주한다.</t>
     <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육진도(수강률) / 출결 조회(대시보드) * (QR코드 API)
+1. 교육진도는 커리큘럼에 맞춰서 현재 일정과 비교할 수 있도록 캘린더에 표시한다. 지난날은 전체 배경을 회색으로 표시하고 출석이 확인되지 않은 날은 빨간색 테두리, 출석한날은 초록색 테두리로 구분한다.
+2. 수강률은 진행된 교육진도에 맞추어 출결현황을 비교하여 별도의 계산식을 통해 계산하여 퍼센트로 표시하고 주차별 과목 및 교강사 리스트 표시하는 영역에 수강일 / 출석일 / 수강률로 구분지어 숫자로 표시된다.  
+3. 출결 현황표시 아래쪽으로 총 출석, 결석, 지각, 조퇴로 구분하여 별도의 아이콘을 만들어서 숫자와 함께 확인할 수 있도록 표시한다.  
+4. 출석체크는 교강사가 준비한 출결 QR코드가 화면에 표시되면 API를 통해 스캔하여 출석이 인증된다.
+5. 출석 인증완료시에는 즉각적으로 출석표시가 된것을 캘린더에서 인지할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1407,15 +1408,15 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1452,17 +1453,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="7" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="7" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="95">
@@ -1595,7 +1596,7 @@
         <xdr:cNvPr id="2" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1701,7 @@
         <xdr:cNvPr id="3" name="Group 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1720,7 @@
           <xdr:cNvPr id="4" name="Line 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1766,7 +1767,7 @@
           <xdr:cNvPr id="5" name="Line 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1813,7 +1814,7 @@
           <xdr:cNvPr id="6" name="Line 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1876,7 +1877,7 @@
         <xdr:cNvPr id="7" name="Group 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1896,7 @@
           <xdr:cNvPr id="8" name="Picture 1" descr="세로형_앞장뒷장_로고제외">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1939,7 +1940,7 @@
           <xdr:cNvPr id="9" name="Group 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1958,7 +1959,7 @@
             <xdr:cNvPr id="11" name="Rectangle 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1993,7 +1994,7 @@
             <xdr:cNvPr id="12" name="Line 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2040,7 +2041,7 @@
             <xdr:cNvPr id="13" name="Line 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2087,7 +2088,7 @@
             <xdr:cNvPr id="14" name="Line 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2134,7 +2135,7 @@
             <xdr:cNvPr id="15" name="Text Box 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2184,7 +2185,7 @@
             <xdr:cNvPr id="16" name="Text Box 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2234,7 +2235,7 @@
             <xdr:cNvPr id="17" name="Text Box 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2284,7 +2285,7 @@
             <xdr:cNvPr id="18" name="Text Box 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2331,7 +2332,7 @@
             <xdr:cNvPr id="19" name="Text Box 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2438,7 +2439,7 @@
             <xdr:cNvPr id="20" name="Text Box 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2489,7 +2490,7 @@
           <xdr:cNvPr id="10" name="Text Box 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2851,11 +2852,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -2876,10 +2877,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="14"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -2888,10 +2889,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="14"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -2900,10 +2901,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="14"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -2912,10 +2913,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -2924,10 +2925,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -2936,10 +2937,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -2948,10 +2949,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -2960,10 +2961,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="14"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -3020,10 +3021,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="14"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -3032,10 +3033,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="14"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -3044,10 +3045,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="14"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -3056,10 +3057,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="14"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -3068,10 +3069,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="14"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -3080,10 +3081,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -3092,10 +3093,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="14"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -3164,29 +3165,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B18:C18"/>
@@ -3195,6 +3173,29 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3488,8 +3489,8 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -3503,32 +3504,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="55"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>2</v>
@@ -3547,100 +3548,100 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="78" customHeight="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="78" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="61.5" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="113.25" customHeight="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="156.75" customHeight="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="53" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="122.25" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="53"/>
       <c r="C9" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="26" t="s">
@@ -3651,10 +3652,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="179.25" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="53"/>
       <c r="C10" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="26" t="s">
@@ -3665,124 +3666,124 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="164.25" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="53"/>
       <c r="C11" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="26" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="230.25" customHeight="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="53"/>
       <c r="C12" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="150.75" customHeight="1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="53"/>
       <c r="C13" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="147.75" customHeight="1">
-      <c r="A14" s="52"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="53"/>
       <c r="C14" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="128.25" customHeight="1">
-      <c r="A15" s="52"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="53"/>
       <c r="C15" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="106.5" customHeight="1">
-      <c r="A16" s="52"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="53"/>
       <c r="C16" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="175.5" customHeight="1">
-      <c r="A17" s="52"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="53"/>
       <c r="C17" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="126" customHeight="1">
-      <c r="A18" s="52"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="53"/>
       <c r="C18" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="53"/>
       <c r="E18" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="86.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="53" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>29</v>
@@ -3795,10 +3796,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="189" customHeight="1">
-      <c r="A20" s="52"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="53"/>
       <c r="C20" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>36</v>
@@ -3811,13 +3812,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="112.5" customHeight="1">
-      <c r="A21" s="52"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="53"/>
       <c r="C21" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="27" t="s">
         <v>38</v>
@@ -3827,10 +3828,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="397.5" customHeight="1">
-      <c r="A22" s="52"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="53"/>
       <c r="C22" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>31</v>
@@ -3843,10 +3844,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="409.5">
-      <c r="A23" s="52"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="53"/>
       <c r="C23" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>41</v>
@@ -3859,26 +3860,26 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="300.75" customHeight="1">
-      <c r="A24" s="52"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="53"/>
       <c r="C24" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="51.75">
-      <c r="A25" s="52"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="53"/>
       <c r="C25" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>27</v>
@@ -3891,13 +3892,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="137.25" customHeight="1">
-      <c r="A26" s="52"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="53"/>
       <c r="C26" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>44</v>
@@ -3907,7 +3908,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="108" customHeight="1">
-      <c r="A27" s="52"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="31" t="s">
         <v>45</v>
       </c>
@@ -3915,10 +3916,10 @@
         <v>43</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>19</v>

--- a/docs/교육생 요구사항정의서.xlsx
+++ b/docs/교육생 요구사항정의서.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiro1\OneDrive\바탕 화면\svn\documents\요구사항 정의서 최종\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03C50DB-9A54-4FAA-B6E8-54AB3E63B8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="4" r:id="rId1"/>
@@ -12,21 +18,11 @@
     <sheet name="정의서" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -125,10 +121,6 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>상담</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t>이력서 관리</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
@@ -149,23 +141,6 @@
 1. 해당 교육생의 학력 내용은 화면에 알맞게 표시된다.
 2. 학력 내용은 교육생의 대학교, 학과, 입학일, 졸업일, 이름, 
    주민등록번호 자격증 등이 포함된다.</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보 수정</t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보 수정
-1. 개인정보 수정을 누르면 비번을 입력하는 페이지가 뜨고 비번을 입력한다.
-2.    비번이 일치하면 개인정보가 화면에 출력된다.
-2-1. 비번이 일치하지 않으면 비번이 틀렸다는 알림이 뜨고나서 
-      교육생 대시보드 화면으로 이동된다.
-3. 해당 교육생의 개인정보가 알맞은 형태로 표시된다.
-4. 개인정보는 이름, 주소, 휴대전화번호, 이메일, 프로필이미지가 뜨며
-    주소, 휴대전화번호, 이메일 프로필이미지만 수정이 가능하다.
-5. 개인정보 수정을 완료하면 수정 버튼 누른다.
-6. 개인정보 수정이 완료되었다는 메시지가 알림으로 뜨면서 화면이 수정된 개인정보가 화면에 출력된다.</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
@@ -199,10 +174,6 @@
 3. 삭제 버튼을 누르면 이력서 삭제가 완료되었다는 알림이 뜨면서 
    이력서 리스트가 출력된다.</t>
     <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ST-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>포트폴리오 관리</t>
@@ -233,10 +204,6 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>RQ-ST-26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입사 지원
 1. 입사 지원 버튼을 누르면 해당 교육생이 수강하고 있는 교육과 
    관련된 구직처 리스트가 출력된다.
@@ -247,12 +214,6 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>입퇴실 시 
-출결 등록
-(QR코드 API)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항 조회(대시보드) : 조회
 1. 공지사항 게시판은 통합게시판(탭을 통해서 게시판 전환이 가능한)의 가장 앞쪽에 위치한다.
 2. 직무교육과 관련된 공지사항 조회가 가능하다.(교육관련 공지사항만 등재된다)
@@ -270,6 +231,14 @@
 5. 동일페이지 내 캘린더의 바깥영역에 들어야하는 주차별 과목과 교강사의 리스트가 옆에 표시된다. 
 6. 교육과목이 다른내용일 경우 가로선의 색깔을 다르게 표시한다.
 7. 캘린더는 휴일과 공휴일에 대한 표시가 있다.</t>
+  </si>
+  <si>
+    <t>교육진도(수강률) / 출결 조회(대시보드) * (QR코드 API)
+1. 교육진도는 커리큘럼에 맞춰서 현재 일정과 비교할 수 있도록 캘린더에 표시한다. 지난날은 전체 배경을 회색으로 표시하고 출석이 확인되지 않은 날은 빨간색 테두리, 출석한날은 초록색 테두리로 구분한다.
+2. 수강률은 진행된 교육진도에 맞추어 출결현황을 비교하여 별도의 계산식을 통해 계산하여 퍼센트로 표시하고 주차별 과목 및 교강사 리스트 표시하는 영역에 수강일 / 출석일 / 수강률로 구분지어 숫자로 표시된다.  
+3. 출결 현황표시 아래쪽으로 총 출석, 결석, 지각, 조퇴, 외출로 구분하여 별도의 아이콘을 만들어서 숫자와 함께 확인할 수 있도록 표시한다.  
+4. 출석체크는 교강사가 준비한 출결 QR코드가 화면에 표시되면 API를 통해 스캔하여 출석이 인증된다.
+5. 출석 인증완료시에는 즉각적으로 출석표시가 된것을 캘린더에서 인지할 수 있다.</t>
   </si>
   <si>
     <t>시험 응시
@@ -429,25 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상담 
-상담 버튼을 누르면 상담 페이지로 이동된다.
-상담 페이지는 상담 내역에 대한 리스트 형태로 표시되며 추가로 상담신청이
-가능하다.
-[계획]
-1. 상담 신청 버튼을 누르면 상담 신청페이지가 표시되고  
-   교육생이 수강하고 있는 교육에 대한 설문조사를 진행한다.
-2. 설문조사를 완료할 때까지 신청이 불가하며 완료한 후에 신청이 가능하다.
-[실시]
-1. 상담 진행은 비대면 화상 통화로 진행되며 교강사는 교육생이 작성한 
-   설문지를 토대로 상담을 진행한다.
-[결과]
-1. 상담을 모두 진행하면 교강사는 설문일지를 작성하여 저장한다.
-[분석]
-1. 해당 교육생은 상담을 진행한 후  교강사의 피드백을 상당 신청 내역에서 
-   확인할 수 있다.</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t>교육생회원 
 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,11 +405,6 @@
   <si>
     <t>입사 지원 
 및 이력조회</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>입퇴실시 
-출결 등록</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
@@ -505,28 +450,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입퇴실시 출결 등록
-1. 로그인을 한 후 교육생이 휴대폰으로 큐알코드를 생성하여 강의실 웹캠에 찍어서 출석(입실)을 체크한다.
-2. 교육생이 오늘의 교육일정을 모두 완료하면 입실때와 동일하게 큐알코드를 찍어서 퇴실을 체크한다.
-3. 정해진 시간 09:00 이후에 찍히면 지각으로 간주한다.
-4. 퇴실을 찍지 않으면 결석으로 처리한다.
-5. 퇴실을 찍은 시간이 12시 이전인경우 결석, 이후면 조퇴로 간주한다.</t>
+    <t>교육생 
+개인정보</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 조회(대시보드)
+1. 개인 신상정보(이름(아이디), 주소, 연락처, 이메일, 프로필이미지)가 화면에 표시된다.
+개인정보 수정
+1. 개인정보 수정을 누르면 비번을 입력하는 페이지가 뜨고 비번을 입력한다.
+2.    비번이 일치하면 개인정보를 수정할 수 있는 페이지가 화면에 출력된다.
+2-1. 비번이 일치하지 않으면 비번이 틀렸다는 알림이 뜨고나서 
+      다시 비번을 입력할 수 있도록 페이지를 다시 보여준다.
+3. 교육생의 기존 개인 신상정보(이름(아이디), 주소, 연락처, 이메일, 프로필이미지)가 알맞은 형태로 표시되며
+   주소, 연락처, 이메일 프로필이미지만 수정이 가능하다.
+5. 개인정보 수정을 완료하면 수정 버튼 누르면 개인정보 수정이 완료되었다는 
+   메시지가 알림으로 뜨면서 마이페이지 대시보드에 수정된 개인정보가 화면에 출력된다.</t>
     <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육진도(수강률) / 출결 조회(대시보드) * (QR코드 API)
-1. 교육진도는 커리큘럼에 맞춰서 현재 일정과 비교할 수 있도록 캘린더에 표시한다. 지난날은 전체 배경을 회색으로 표시하고 출석이 확인되지 않은 날은 빨간색 테두리, 출석한날은 초록색 테두리로 구분한다.
-2. 수강률은 진행된 교육진도에 맞추어 출결현황을 비교하여 별도의 계산식을 통해 계산하여 퍼센트로 표시하고 주차별 과목 및 교강사 리스트 표시하는 영역에 수강일 / 출석일 / 수강률로 구분지어 숫자로 표시된다.  
-3. 출결 현황표시 아래쪽으로 총 출석, 결석, 지각, 조퇴로 구분하여 별도의 아이콘을 만들어서 숫자와 함께 확인할 수 있도록 표시한다.  
-4. 출석체크는 교강사가 준비한 출결 QR코드가 화면에 표시되면 API를 통해 스캔하여 출석이 인증된다.
-5. 출석 인증완료시에는 즉각적으로 출석표시가 된것을 캘린더에서 인지할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -1408,15 +1354,15 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1467,100 +1413,100 @@
     </xf>
   </cellXfs>
   <cellStyles count="95">
-    <cellStyle name="_dimensions(1)" xfId="48"/>
-    <cellStyle name="_엑셀문서표준_양식(세로)" xfId="47"/>
-    <cellStyle name="_요구사항추적매트릭스(CS)_보기" xfId="46"/>
-    <cellStyle name="_요구사항추적표(웹)_양식" xfId="45"/>
-    <cellStyle name="_원가분석표" xfId="44"/>
-    <cellStyle name="_통합테스트빌드목록" xfId="43"/>
-    <cellStyle name="_회의록관리대장_#.업무영역명" xfId="42"/>
-    <cellStyle name="¤@?e_TEST-1 " xfId="41"/>
-    <cellStyle name="AeE­ [0]_AMT " xfId="40"/>
-    <cellStyle name="AeE­_AMT " xfId="39"/>
-    <cellStyle name="ALIGNMENT" xfId="2"/>
-    <cellStyle name="ALIGNMENT 2" xfId="32"/>
-    <cellStyle name="AÞ¸¶ [0]_AN°y(1.25) " xfId="28"/>
-    <cellStyle name="AÞ¸¶_AN°y(1.25) " xfId="29"/>
-    <cellStyle name="C￥AØ_≫c¾÷ºIº° AN°e " xfId="50"/>
-    <cellStyle name="category" xfId="3"/>
-    <cellStyle name="category 2" xfId="33"/>
-    <cellStyle name="Comma [0]_ SG&amp;A Bridge " xfId="51"/>
-    <cellStyle name="comma zerodec" xfId="4"/>
-    <cellStyle name="comma zerodec 2" xfId="34"/>
-    <cellStyle name="Comma_ SG&amp;A Bridge " xfId="52"/>
-    <cellStyle name="Curren?_x0012_퐀_x0017_?" xfId="53"/>
-    <cellStyle name="Currency [0]_ SG&amp;A Bridge " xfId="54"/>
-    <cellStyle name="Currency_ SG&amp;A Bridge " xfId="55"/>
-    <cellStyle name="Currency1" xfId="5"/>
-    <cellStyle name="Currency1 2" xfId="35"/>
-    <cellStyle name="Dollar (zero dec)" xfId="6"/>
-    <cellStyle name="Dollar (zero dec) 2" xfId="36"/>
-    <cellStyle name="Grey" xfId="7"/>
-    <cellStyle name="Grey 2" xfId="74"/>
-    <cellStyle name="Grey 3" xfId="78"/>
-    <cellStyle name="Grey 4" xfId="56"/>
-    <cellStyle name="Grey 5" xfId="37"/>
-    <cellStyle name="HEADER" xfId="8"/>
-    <cellStyle name="HEADER 2" xfId="38"/>
-    <cellStyle name="Header1" xfId="9"/>
-    <cellStyle name="Header1 2" xfId="27"/>
-    <cellStyle name="Header2" xfId="10"/>
-    <cellStyle name="Header2 2" xfId="83"/>
-    <cellStyle name="Hyperlink_NEGS" xfId="11"/>
-    <cellStyle name="Input [yellow]" xfId="12"/>
-    <cellStyle name="Input [yellow] 2" xfId="75"/>
-    <cellStyle name="Input [yellow] 3" xfId="79"/>
-    <cellStyle name="Input [yellow] 4" xfId="57"/>
-    <cellStyle name="Input [yellow] 5" xfId="84"/>
-    <cellStyle name="Model" xfId="13"/>
-    <cellStyle name="Model 2" xfId="85"/>
-    <cellStyle name="Normal - Style1" xfId="14"/>
-    <cellStyle name="Normal - Style1 2" xfId="76"/>
-    <cellStyle name="Normal - Style1 3" xfId="80"/>
-    <cellStyle name="Normal - Style1 4" xfId="58"/>
-    <cellStyle name="Normal - Style1 5" xfId="86"/>
-    <cellStyle name="Normal_ SG&amp;A Bridge " xfId="59"/>
-    <cellStyle name="Percent [2]" xfId="15"/>
-    <cellStyle name="Percent [2] 2" xfId="87"/>
-    <cellStyle name="subhead" xfId="16"/>
-    <cellStyle name="subhead 2" xfId="88"/>
-    <cellStyle name="똿뗦먛귟 [0.00]_PRODUCT DETAIL Q1" xfId="60"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="61"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="62"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="63"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="64"/>
-    <cellStyle name="쉼표 [0] 2" xfId="65"/>
-    <cellStyle name="스타일 1" xfId="17"/>
-    <cellStyle name="스타일 1 2" xfId="77"/>
-    <cellStyle name="스타일 1 3" xfId="81"/>
-    <cellStyle name="스타일 1 4" xfId="66"/>
-    <cellStyle name="스타일 1 5" xfId="89"/>
+    <cellStyle name="_dimensions(1)" xfId="48" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_엑셀문서표준_양식(세로)" xfId="47" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="_요구사항추적매트릭스(CS)_보기" xfId="46" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="_요구사항추적표(웹)_양식" xfId="45" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_원가분석표" xfId="44" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="_통합테스트빌드목록" xfId="43" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="_회의록관리대장_#.업무영역명" xfId="42" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="¤@?e_TEST-1 " xfId="41" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="AeE­ [0]_AMT " xfId="40" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="AeE­_AMT " xfId="39" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="ALIGNMENT" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="ALIGNMENT 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="AÞ¸¶ [0]_AN°y(1.25) " xfId="28" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="AÞ¸¶_AN°y(1.25) " xfId="29" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="C￥AØ_≫c¾÷ºIº° AN°e " xfId="50" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="category" xfId="3" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="category 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Comma [0]_ SG&amp;A Bridge " xfId="51" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="comma zerodec" xfId="4" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="comma zerodec 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Comma_ SG&amp;A Bridge " xfId="52" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Curren?_x0012_퐀_x0017_?" xfId="53" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Currency [0]_ SG&amp;A Bridge " xfId="54" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Currency_ SG&amp;A Bridge " xfId="55" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Currency1" xfId="5" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Currency1 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Dollar (zero dec)" xfId="6" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Dollar (zero dec) 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Grey" xfId="7" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Grey 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Grey 3" xfId="78" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Grey 4" xfId="56" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Grey 5" xfId="37" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="HEADER" xfId="8" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="HEADER 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Header1" xfId="9" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Header1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Header2" xfId="10" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Header2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Hyperlink_NEGS" xfId="11" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Input [yellow]" xfId="12" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Input [yellow] 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Input [yellow] 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Input [yellow] 4" xfId="57" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Input [yellow] 5" xfId="84" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Model" xfId="13" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Model 2" xfId="85" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal - Style1" xfId="14" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal - Style1 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal - Style1 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal - Style1 4" xfId="58" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal - Style1 5" xfId="86" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal_ SG&amp;A Bridge " xfId="59" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Percent [2]" xfId="15" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Percent [2] 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="subhead" xfId="16" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="subhead 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="똿뗦먛귟 [0.00]_PRODUCT DETAIL Q1" xfId="60" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="61" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="62" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="63" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="64" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="스타일 1" xfId="17" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="스타일 1 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="스타일 1 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="스타일 1 4" xfId="66" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="스타일 1 5" xfId="89" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="콤마 [0]_ 견적기준 FLOW " xfId="67"/>
-    <cellStyle name="콤마_ 견적기준 FLOW " xfId="68"/>
+    <cellStyle name="콤마 [0]_ 견적기준 FLOW " xfId="67" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="콤마_ 견적기준 FLOW " xfId="68" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="22"/>
-    <cellStyle name="표준 2" xfId="18"/>
-    <cellStyle name="표준 2 2" xfId="26"/>
-    <cellStyle name="표준 2 3" xfId="19"/>
-    <cellStyle name="표준 2 3 2" xfId="21"/>
-    <cellStyle name="표준 2 3 2 2" xfId="92"/>
-    <cellStyle name="표준 2 3 3" xfId="91"/>
-    <cellStyle name="표준 2 4" xfId="82"/>
-    <cellStyle name="표준 2 5" xfId="69"/>
-    <cellStyle name="표준 2 6" xfId="90"/>
-    <cellStyle name="표준 2 7" xfId="24"/>
-    <cellStyle name="표준 3" xfId="1"/>
-    <cellStyle name="표준 3 2" xfId="25"/>
-    <cellStyle name="표준 3 3" xfId="31"/>
-    <cellStyle name="표준 3 4" xfId="23"/>
-    <cellStyle name="표준 4" xfId="70"/>
-    <cellStyle name="표준 5" xfId="71"/>
-    <cellStyle name="표준 6" xfId="72"/>
-    <cellStyle name="표준 7" xfId="73"/>
-    <cellStyle name="표준 8" xfId="49"/>
-    <cellStyle name="표준 9" xfId="30"/>
-    <cellStyle name="표준_요구사항정의서_마켓플레이스" xfId="20"/>
+    <cellStyle name="표준 10" xfId="22" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="표준 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="표준 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="표준 2 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="표준 2 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="표준 2 3 2 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="표준 2 3 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="표준 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="표준 2 5" xfId="69" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="표준 2 6" xfId="90" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="표준 2 7" xfId="24" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="표준 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="표준 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="표준 3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="표준 3 4" xfId="23" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="표준 4" xfId="70" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="표준 5" xfId="71" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="표준 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="표준 7" xfId="73" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="표준 8" xfId="49" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="표준 9" xfId="30" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="표준_요구사항정의서_마켓플레이스" xfId="20" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
     <cellStyle name="하이퍼링크" xfId="93" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1596,7 +1542,7 @@
         <xdr:cNvPr id="2" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1647,7 @@
         <xdr:cNvPr id="3" name="Group 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1666,7 @@
           <xdr:cNvPr id="4" name="Line 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1767,7 +1713,7 @@
           <xdr:cNvPr id="5" name="Line 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1814,7 +1760,7 @@
           <xdr:cNvPr id="6" name="Line 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1877,7 +1823,7 @@
         <xdr:cNvPr id="7" name="Group 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1842,7 @@
           <xdr:cNvPr id="8" name="Picture 1" descr="세로형_앞장뒷장_로고제외">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1940,7 +1886,7 @@
           <xdr:cNvPr id="9" name="Group 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1959,7 +1905,7 @@
             <xdr:cNvPr id="11" name="Rectangle 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1994,7 +1940,7 @@
             <xdr:cNvPr id="12" name="Line 10">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2041,7 +1987,7 @@
             <xdr:cNvPr id="13" name="Line 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2088,7 +2034,7 @@
             <xdr:cNvPr id="14" name="Line 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2135,7 +2081,7 @@
             <xdr:cNvPr id="15" name="Text Box 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2185,7 +2131,7 @@
             <xdr:cNvPr id="16" name="Text Box 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2235,7 +2181,7 @@
             <xdr:cNvPr id="17" name="Text Box 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2285,7 +2231,7 @@
             <xdr:cNvPr id="18" name="Text Box 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2332,7 +2278,7 @@
             <xdr:cNvPr id="19" name="Text Box 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2439,7 +2385,7 @@
             <xdr:cNvPr id="20" name="Text Box 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2490,7 +2436,7 @@
           <xdr:cNvPr id="10" name="Text Box 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2594,7 +2540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2627,9 +2573,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2662,6 +2625,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2837,7 +2817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -2852,11 +2832,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -2877,10 +2857,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="14"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -2889,10 +2869,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="14"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -2901,10 +2881,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="14"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -2913,10 +2893,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -2925,10 +2905,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -2937,10 +2917,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -2949,10 +2929,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -2961,10 +2941,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="14"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -3021,10 +3001,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="14"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -3033,10 +3013,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="14"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -3045,10 +3025,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="14"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -3057,10 +3037,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="14"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -3069,10 +3049,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="14"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -3081,10 +3061,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -3093,10 +3073,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="14"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -3165,6 +3145,29 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B18:C18"/>
@@ -3173,29 +3176,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3205,7 +3185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -3259,10 +3239,10 @@
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>14</v>
@@ -3483,14 +3463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -3520,7 +3500,7 @@
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
       <c r="D2" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="54"/>
       <c r="F2" s="21" t="s">
@@ -3529,7 +3509,7 @@
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>2</v>
@@ -3553,13 +3533,13 @@
         <v>20</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>87</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>19</v>
@@ -3571,13 +3551,13 @@
         <v>23</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>19</v>
@@ -3589,13 +3569,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>19</v>
@@ -3607,13 +3587,13 @@
         <v>22</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>19</v>
@@ -3625,13 +3605,13 @@
         <v>24</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>19</v>
@@ -3641,11 +3621,11 @@
       <c r="A9" s="55"/>
       <c r="B9" s="53"/>
       <c r="C9" s="29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>19</v>
@@ -3655,11 +3635,11 @@
       <c r="A10" s="55"/>
       <c r="B10" s="53"/>
       <c r="C10" s="29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>19</v>
@@ -3669,11 +3649,11 @@
       <c r="A11" s="55"/>
       <c r="B11" s="53"/>
       <c r="C11" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="26" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>19</v>
@@ -3683,11 +3663,11 @@
       <c r="A12" s="55"/>
       <c r="B12" s="53"/>
       <c r="C12" s="29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>19</v>
@@ -3697,11 +3677,11 @@
       <c r="A13" s="55"/>
       <c r="B13" s="53"/>
       <c r="C13" s="29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>19</v>
@@ -3711,11 +3691,11 @@
       <c r="A14" s="55"/>
       <c r="B14" s="53"/>
       <c r="C14" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>19</v>
@@ -3725,11 +3705,11 @@
       <c r="A15" s="55"/>
       <c r="B15" s="53"/>
       <c r="C15" s="29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>19</v>
@@ -3739,11 +3719,11 @@
       <c r="A16" s="55"/>
       <c r="B16" s="53"/>
       <c r="C16" s="29" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>19</v>
@@ -3753,11 +3733,11 @@
       <c r="A17" s="55"/>
       <c r="B17" s="53"/>
       <c r="C17" s="29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>19</v>
@@ -3767,45 +3747,45 @@
       <c r="A18" s="55"/>
       <c r="B18" s="53"/>
       <c r="C18" s="29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D18" s="53"/>
       <c r="E18" s="26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="86.25">
+    <row r="19" spans="1:6" ht="90" customHeight="1">
       <c r="A19" s="55"/>
       <c r="B19" s="53" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="189" customHeight="1">
+    <row r="20" spans="1:6" ht="227.25" customHeight="1">
       <c r="A20" s="55"/>
       <c r="B20" s="53"/>
       <c r="C20" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>36</v>
+        <v>64</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>19</v>
@@ -3815,13 +3795,13 @@
       <c r="A21" s="55"/>
       <c r="B21" s="53"/>
       <c r="C21" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>19</v>
@@ -3831,13 +3811,13 @@
       <c r="A22" s="55"/>
       <c r="B22" s="53"/>
       <c r="C22" s="29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>19</v>
@@ -3847,93 +3827,59 @@
       <c r="A23" s="55"/>
       <c r="B23" s="53"/>
       <c r="C23" s="29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="300.75" customHeight="1">
+    <row r="24" spans="1:6" ht="51.75">
       <c r="A24" s="55"/>
       <c r="B24" s="53"/>
       <c r="C24" s="29" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>79</v>
+        <v>27</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="51.75">
+    <row r="25" spans="1:6" ht="137.25" customHeight="1">
       <c r="A25" s="55"/>
       <c r="B25" s="53"/>
       <c r="C25" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>28</v>
+        <v>83</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="137.25" customHeight="1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="108" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="30" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B19:B25"/>
     <mergeCell ref="D8:D18"/>
     <mergeCell ref="B8:B18"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="A4:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
